--- a/Design Documents/RotatingTableOneRevolution.xlsx
+++ b/Design Documents/RotatingTableOneRevolution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/acd3a38d19d7ae93/REPOs/COTS/Design Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{9C2496BC-3104-4BDA-A22D-CF86FF56B85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C2E4573-2437-423E-8887-2CC735BECA96}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{9C2496BC-3104-4BDA-A22D-CF86FF56B85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D130597-9D22-4753-8951-88CABC7543E0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CB8CACCF-CC58-447D-BFFE-1077D3978CB8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Transmission mode: worm gear (reduction ratio 1/180)</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>1 motor revolution (uSteps*1.8)</t>
+  </si>
+  <si>
+    <t>Steps to move 1 degree</t>
   </si>
 </sst>
 </file>
@@ -112,6 +115,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4D9C82-070F-4E6B-A4E6-CF912B2D161E}">
-  <dimension ref="D3:H5"/>
+  <dimension ref="D3:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +449,7 @@
     <col min="4" max="8" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:8" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:9" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
@@ -458,8 +465,11 @@
       <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D4" s="3">
         <v>256</v>
       </c>
@@ -478,8 +488,12 @@
         <f>F4*G4</f>
         <v>9216000</v>
       </c>
+      <c r="I4">
+        <f>H4/360</f>
+        <v>25600</v>
+      </c>
     </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
